--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -16,9 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1'!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,23 +44,24 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Cantidad</t>
+    <t>IDCOMPONENTE</t>
   </si>
   <si>
     <t>IDPERSONA</t>
   </si>
   <si>
-    <t>IDCOMPONENTE</t>
+    <t>Porcentaje</t>
   </si>
   <si>
-    <t>Porcentaje</t>
+    <t>Cantidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +91,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,58 +417,59 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -467,6 +467,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Inherit\Inherit\bin\Debug\net6.0-windows\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC1D7E-8B13-4A13-A472-82BA63338152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F05322-3921-4E63-A4C5-54B9D218A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,79 +447,154 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0">
         <v>2</v>
+      </c>
+      <c r="D3" s="0">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0">
+        <v>205.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="0">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0">
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0">
         <v>5</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0">
         <v>5</v>
       </c>
-      <c r="C8" s="0">
-        <v>2</v>
+      <c r="E8" s="0">
+        <v>22.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
+      </c>
+      <c r="D9" s="0">
+        <v>20.42900919305414</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0">
+        <v>15</v>
+      </c>
+      <c r="E10" s="0">
+        <v>734.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>3</v>
+      </c>
+      <c r="D11" s="0">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1713.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0">
+        <v>29.57</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1447.4515000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="0">
-        <v>20.42900919305414</v>
+        <v>20.42901</v>
       </c>
       <c r="E9" s="0">
         <v>1000</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="0">
-        <v>35</v>
+        <v>20.239220318960424</v>
       </c>
       <c r="E11" s="0">
         <v>1713.25</v>
@@ -588,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="0">
         <v>29.57</v>
       </c>
       <c r="E12" s="0">
-        <v>1447.4515000000001</v>
+        <v>2503.1005</v>
       </c>
     </row>
   </sheetData>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H1048576"/>
@@ -585,16 +585,50 @@
         <v>12</v>
       </c>
       <c r="B12" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>29.57</v>
+        <v>33.33</v>
       </c>
       <c r="E12" s="0">
-        <v>2503.1005</v>
+        <v>298.9701</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0">
+        <v>33.33</v>
+      </c>
+      <c r="E13" s="0">
+        <v>298.9701</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0">
+        <v>4</v>
+      </c>
+      <c r="D14" s="0">
+        <v>33.33</v>
+      </c>
+      <c r="E14" s="0">
+        <v>298.9701</v>
       </c>
     </row>
   </sheetData>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H1048576"/>
@@ -574,10 +574,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="0">
-        <v>20.239220318960424</v>
+        <v>20.23922</v>
       </c>
       <c r="E11" s="0">
-        <v>1713.25</v>
+        <v>1713.249973</v>
       </c>
     </row>
     <row r="12">
@@ -629,6 +629,23 @@
       </c>
       <c r="E14" s="0">
         <v>298.9701</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0">
+        <v>4</v>
+      </c>
+      <c r="D15" s="0">
+        <v>44.33</v>
+      </c>
+      <c r="E15" s="0">
+        <v>3752.5344999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H1048576"/>
@@ -489,6 +489,12 @@
       <c r="C5" s="0">
         <v>0</v>
       </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -500,6 +506,12 @@
       <c r="C6" s="0">
         <v>1</v>
       </c>
+      <c r="D6" s="0">
+        <v>50</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2429.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -511,6 +523,12 @@
       <c r="C7" s="0">
         <v>2</v>
       </c>
+      <c r="D7" s="0">
+        <v>50</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2429.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -591,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>33.33</v>
+        <v>33.34</v>
       </c>
       <c r="E12" s="0">
-        <v>298.9701</v>
+        <v>299.05980000000005</v>
       </c>
     </row>
     <row r="13">
@@ -646,6 +664,276 @@
       </c>
       <c r="E15" s="0">
         <v>3752.5344999999998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0">
+        <v>4</v>
+      </c>
+      <c r="C17" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0">
+        <v>4</v>
+      </c>
+      <c r="C18" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0">
+        <v>4</v>
+      </c>
+      <c r="C19" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0">
+        <v>20</v>
+      </c>
+      <c r="E22" s="0">
+        <v>379.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0">
+        <v>20</v>
+      </c>
+      <c r="E23" s="0">
+        <v>379.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0">
+        <v>4</v>
+      </c>
+      <c r="D24" s="0">
+        <v>20</v>
+      </c>
+      <c r="E24" s="0">
+        <v>379.6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0">
+        <v>5</v>
+      </c>
+      <c r="D25" s="0">
+        <v>20</v>
+      </c>
+      <c r="E25" s="0">
+        <v>379.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" s="0">
+        <v>7</v>
+      </c>
+      <c r="D26" s="0">
+        <v>20</v>
+      </c>
+      <c r="E26" s="0">
+        <v>379.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0">
+        <v>25</v>
+      </c>
+      <c r="E27" s="0">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" s="0">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0">
+        <v>25</v>
+      </c>
+      <c r="E28" s="0">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" s="0">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0">
+        <v>25</v>
+      </c>
+      <c r="E29" s="0">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" s="0">
+        <v>25</v>
+      </c>
+      <c r="E30" s="0">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0">
+        <v>3</v>
+      </c>
+      <c r="D31" s="0">
+        <v>50</v>
+      </c>
+      <c r="E31" s="0">
+        <v>22832</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>32</v>
+      </c>
+      <c r="B32" s="0">
+        <v>8</v>
+      </c>
+      <c r="C32" s="0">
+        <v>4</v>
+      </c>
+      <c r="D32" s="0">
+        <v>50</v>
+      </c>
+      <c r="E32" s="0">
+        <v>22832</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0">
+        <v>5</v>
+      </c>
+      <c r="D33" s="0">
+        <v>100</v>
+      </c>
+      <c r="E33" s="0">
+        <v>5673</v>
       </c>
     </row>
   </sheetData>

--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0">
-        <v>205.2</v>
+        <v>150.48000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0">
-        <v>228</v>
+        <v>150.48000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -541,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0">
-        <v>22.8</v>
+        <v>150.48000000000002</v>
       </c>
     </row>
     <row r="9">

--- a/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/bin/Debug/net6.0-windows/Assets/RelacionComponentePersona.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H1048576"/>
@@ -434,6 +434,74 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0">
+        <v>564856</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>40</v>
+      </c>
+      <c r="E3" s="0">
+        <v>18080</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0">
+        <v>59.5</v>
+      </c>
+      <c r="E4" s="0">
+        <v>26894</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="0">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
